--- a/语法/形容词活用.xlsx
+++ b/语法/形容词活用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296823ED-CD2B-46EE-99D2-2D88DEDA45F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7E1B15-067F-41CD-97F2-F8A97AAD9469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>形容词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,42 +43,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（いー＞く）＋て</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>で</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（いー＞かっ）＋た</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>だった</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（いー＞く）＋ない</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>じゃない</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ければ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>なら（ば）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>い</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>だ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +60,86 @@
   </si>
   <si>
     <t>の</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连用形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连体形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词干+ければ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词干+い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推量形(未然形)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>词干+かろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>う</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（いー＞かっ）＋た</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(たり)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>で（ではない）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（いー＞く）＋て（ない）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ます形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だろう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +169,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,42 +239,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,158 +566,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.58203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.9140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A1:A3"/>
+  <mergeCells count="10">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/语法/形容词活用.xlsx
+++ b/语法/形容词活用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7E1B15-067F-41CD-97F2-F8A97AAD9469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07B3F24-8CAF-404F-B811-2E79C79A4974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,28 +262,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -583,79 +583,79 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -676,10 +676,10 @@
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
